--- a/data/TC04_CheckSelectedHotelName.xlsx
+++ b/data/TC04_CheckSelectedHotelName.xlsx
@@ -64,13 +64,13 @@
     <t>1 - One</t>
   </si>
   <si>
-    <t>21/05/2016</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
-    <t>22/05/2016</t>
+    <t>25/05/2016</t>
+  </si>
+  <si>
+    <t>26/05/2016</t>
   </si>
 </sst>
 </file>
@@ -416,7 +416,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,7 +465,7 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -488,7 +488,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>18</v>

--- a/data/TC04_CheckSelectedHotelName.xlsx
+++ b/data/TC04_CheckSelectedHotelName.xlsx
@@ -67,10 +67,10 @@
     <t>name</t>
   </si>
   <si>
-    <t>25/05/2016</t>
-  </si>
-  <si>
-    <t>26/05/2016</t>
+    <t>25/07/2017</t>
+  </si>
+  <si>
+    <t>26/07/2017</t>
   </si>
 </sst>
 </file>
@@ -416,7 +416,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
